--- a/metrics/llama31-8b_4090/llama31_8b_LMDeploy_4090.xlsx
+++ b/metrics/llama31-8b_4090/llama31_8b_LMDeploy_4090.xlsx
@@ -459,65 +459,65 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5973545974004568</v>
+        <v>238.9211400922909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1399636554718018</v>
+        <v>0.6048669815063477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>71.39681745798508</v>
+        <v>405.3814945227617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08760383605957031</v>
+        <v>1.256722688674927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>513.2799880960441</v>
+        <v>1975.917029473723</v>
       </c>
       <c r="C4" t="n">
-        <v>2.442344694137573</v>
+        <v>1.256722688674927</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>590.9550475709578</v>
+        <v>1935.560293489872</v>
       </c>
       <c r="C5" t="n">
-        <v>2.035979299545288</v>
+        <v>1.615580797195435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>840.9966010307999</v>
+        <v>1790.254461859495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07410719871520996</v>
+        <v>1.662429094314575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>1156.394368368434</v>
+        <v>2180.119482538511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07970359802246094</v>
+        <v>1.677200317382812</v>
       </c>
     </row>
     <row r="8">
@@ -525,10 +525,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>1382.105021992249</v>
+        <v>2180.903621512216</v>
       </c>
       <c r="C8" t="n">
-        <v>5.514133958816529</v>
+        <v>1.734288692474365</v>
       </c>
     </row>
     <row r="9">
@@ -536,32 +536,32 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>1498.930706338517</v>
+        <v>2114.651419179981</v>
       </c>
       <c r="C9" t="n">
-        <v>1.511781482696533</v>
+        <v>2.011844396591187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>1610.10352048497</v>
+        <v>2294.960835529116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1019563961029053</v>
+        <v>2.034645318984985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>1693.850070603737</v>
+        <v>2348.196136093166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07662704467773437</v>
+        <v>2.074422121047974</v>
       </c>
     </row>
     <row r="12">
@@ -569,21 +569,21 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>1783.067260155591</v>
+        <v>2277.948066665945</v>
       </c>
       <c r="C12" t="n">
-        <v>2.635839967727661</v>
+        <v>2.275315046310425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>1818.873769637617</v>
+        <v>2425.270574488507</v>
       </c>
       <c r="C13" t="n">
-        <v>2.019250183105469</v>
+        <v>2.400400161743164</v>
       </c>
     </row>
     <row r="14">
@@ -591,32 +591,32 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>1865.287751253628</v>
+        <v>2401.535674122939</v>
       </c>
       <c r="C14" t="n">
-        <v>2.164606838226318</v>
+        <v>2.608536243438721</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>1903.249756854428</v>
+        <v>2387.102629208999</v>
       </c>
       <c r="C15" t="n">
-        <v>10.21913292884827</v>
+        <v>2.991064071655273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>1957.446016760406</v>
+        <v>2442.58856112181</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03643110275268555</v>
+        <v>3.324000358581543</v>
       </c>
     </row>
     <row r="17">
@@ -624,32 +624,32 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>1998.551933545054</v>
+        <v>2452.720275633326</v>
       </c>
       <c r="C17" t="n">
-        <v>10.26548007011414</v>
+        <v>3.389464139938354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>2025.801607994713</v>
+        <v>2414.627709665182</v>
       </c>
       <c r="C18" t="n">
-        <v>10.33368065834045</v>
+        <v>3.417778253555298</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>2053.253275798717</v>
+        <v>2503.472872120588</v>
       </c>
       <c r="C19" t="n">
-        <v>7.324297456741333</v>
+        <v>0.125002384185791</v>
       </c>
     </row>
     <row r="20">
@@ -657,21 +657,21 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>2075.704830732197</v>
+        <v>2496.039452578172</v>
       </c>
       <c r="C20" t="n">
-        <v>7.14501955986023</v>
+        <v>3.595584154129028</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>2109.244585972725</v>
+        <v>2464.065457244948</v>
       </c>
       <c r="C21" t="n">
-        <v>3.882619886398315</v>
+        <v>3.905146598815918</v>
       </c>
     </row>
     <row r="22">
@@ -679,21 +679,21 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>2131.727225308663</v>
+        <v>2514.127353962672</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39337375640869</v>
+        <v>3.970504999160767</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>2143.632306843881</v>
+        <v>2492.376569239612</v>
       </c>
       <c r="C23" t="n">
-        <v>2.046616821289062</v>
+        <v>4.068084955215454</v>
       </c>
     </row>
     <row r="24">
@@ -701,10 +701,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>2167.804295803395</v>
+        <v>2472.498661450468</v>
       </c>
       <c r="C24" t="n">
-        <v>5.366626052856446</v>
+        <v>4.313977718353271</v>
       </c>
     </row>
     <row r="25">
@@ -712,10 +712,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>2210.353207604861</v>
+        <v>2518.41299175518</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1197407531738281</v>
+        <v>4.407723426818848</v>
       </c>
     </row>
     <row r="26">
@@ -723,21 +723,21 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>2197.384401870904</v>
+        <v>2510.359664783829</v>
       </c>
       <c r="C26" t="n">
-        <v>1.122053413391113</v>
+        <v>4.513628244400024</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>2215.808027786687</v>
+        <v>2490.263694140478</v>
       </c>
       <c r="C27" t="n">
-        <v>10.53341725349426</v>
+        <v>4.72639536857605</v>
       </c>
     </row>
     <row r="28">
@@ -745,10 +745,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>2235.708529063557</v>
+        <v>2536.742059323262</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9202726173400879</v>
+        <v>5.038923025131226</v>
       </c>
     </row>
     <row r="29">
@@ -756,21 +756,21 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>2240.834778204015</v>
+        <v>2527.679777135979</v>
       </c>
       <c r="C29" t="n">
-        <v>10.59324005126953</v>
+        <v>5.379485130310059</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>2254.876432242982</v>
+        <v>2506.86970334822</v>
       </c>
       <c r="C30" t="n">
-        <v>8.634758739471435</v>
+        <v>3.779231071472168</v>
       </c>
     </row>
     <row r="31">
@@ -778,10 +778,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>2257.936151281376</v>
+        <v>2542.289122757489</v>
       </c>
       <c r="C31" t="n">
-        <v>10.73630860328674</v>
+        <v>5.838019371032715</v>
       </c>
     </row>
     <row r="32">
@@ -789,10 +789,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>2257.475925931605</v>
+        <v>2542.178608750485</v>
       </c>
       <c r="C32" t="n">
-        <v>4.070960311889649</v>
+        <v>6.088017702102661</v>
       </c>
     </row>
     <row r="33">
@@ -800,10 +800,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>2289.143623895966</v>
+        <v>2530.007529541973</v>
       </c>
       <c r="C33" t="n">
-        <v>10.93796446800232</v>
+        <v>0.2381448745727539</v>
       </c>
     </row>
     <row r="34">
@@ -811,10 +811,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>2292.462557821412</v>
+        <v>2556.078510192511</v>
       </c>
       <c r="C34" t="n">
-        <v>2.670526294708252</v>
+        <v>6.690418481826782</v>
       </c>
     </row>
     <row r="35">
@@ -822,10 +822,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>2281.876283041606</v>
+        <v>2566.254786812159</v>
       </c>
       <c r="C35" t="n">
-        <v>10.9933002281189</v>
+        <v>6.918294429779053</v>
       </c>
     </row>
     <row r="36">
@@ -833,10 +833,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>2304.76530824892</v>
+        <v>2576.277920386708</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08202937126159668</v>
+        <v>7.526538133621216</v>
       </c>
     </row>
     <row r="37">
@@ -844,10 +844,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>2305.487748693545</v>
+        <v>2572.265056416034</v>
       </c>
       <c r="C37" t="n">
-        <v>0.976303129196167</v>
+        <v>7.539807319641113</v>
       </c>
     </row>
     <row r="38">
@@ -855,10 +855,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>2321.109910692405</v>
+        <v>2579.509532976195</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002329635620117176</v>
+        <v>7.732934713363647</v>
       </c>
     </row>
     <row r="39">
@@ -866,10 +866,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>2326.000925366945</v>
+        <v>2586.300815590461</v>
       </c>
       <c r="C39" t="n">
-        <v>11.16379645347595</v>
+        <v>7.912158727645874</v>
       </c>
     </row>
     <row r="40">
@@ -877,10 +877,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>2324.571779005858</v>
+        <v>2583.08321724793</v>
       </c>
       <c r="C40" t="n">
-        <v>8.259954957962035</v>
+        <v>7.504146337509155</v>
       </c>
     </row>
     <row r="41">
@@ -888,10 +888,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>2334.955091485121</v>
+        <v>2584.623064974152</v>
       </c>
       <c r="C41" t="n">
-        <v>11.21457245826721</v>
+        <v>9.031976461410522</v>
       </c>
     </row>
     <row r="42">
@@ -899,10 +899,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>2343.955445625167</v>
+        <v>2588.74603497683</v>
       </c>
       <c r="C42" t="n">
-        <v>1.457178621292114</v>
+        <v>3.350245952606201</v>
       </c>
     </row>
     <row r="43">
@@ -910,10 +910,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>2339.164641701276</v>
+        <v>2588.166784977827</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1871412086486816</v>
+        <v>9.344521522521973</v>
       </c>
     </row>
     <row r="44">
@@ -921,10 +921,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>2342.742191214847</v>
+        <v>2608.250429200658</v>
       </c>
       <c r="C44" t="n">
-        <v>11.37798717498779</v>
+        <v>9.693578720092773</v>
       </c>
     </row>
     <row r="45">
@@ -932,10 +932,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>2351.334204608565</v>
+        <v>2599.543637100045</v>
       </c>
       <c r="C45" t="n">
-        <v>11.42109635353088</v>
+        <v>10.28535938262939</v>
       </c>
     </row>
     <row r="46">
@@ -943,10 +943,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>2353.005649374546</v>
+        <v>2610.837180352648</v>
       </c>
       <c r="C46" t="n">
-        <v>1.363408355712891</v>
+        <v>10.90992379188538</v>
       </c>
     </row>
     <row r="47">
@@ -954,10 +954,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>2365.174693434387</v>
+        <v>2620.088498111041</v>
       </c>
       <c r="C47" t="n">
-        <v>11.68013790130615</v>
+        <v>3.897412538528442</v>
       </c>
     </row>
     <row r="48">
@@ -965,10 +965,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>2366.311962977513</v>
+        <v>2613.439433105197</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08419397354125976</v>
+        <v>2.454908132553101</v>
       </c>
     </row>
     <row r="49">
@@ -976,10 +976,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>2367.699245895737</v>
+        <v>2612.493518784106</v>
       </c>
       <c r="C49" t="n">
-        <v>3.613325147628784</v>
+        <v>11.9417188167572</v>
       </c>
     </row>
     <row r="50">
@@ -987,10 +987,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>2372.624885547051</v>
+        <v>2622.169978384949</v>
       </c>
       <c r="C50" t="n">
-        <v>4.742961196899414</v>
+        <v>10.5240843296051</v>
       </c>
     </row>
     <row r="51">
@@ -998,10 +998,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>2378.094053163295</v>
+        <v>2617.059270785792</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02685525894165039</v>
+        <v>12.29688262939453</v>
       </c>
     </row>
     <row r="52">
@@ -1009,10 +1009,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>2377.902487071136</v>
+        <v>2622.594270233439</v>
       </c>
       <c r="C52" t="n">
-        <v>1.318597106933594</v>
+        <v>10.9083559513092</v>
       </c>
     </row>
     <row r="53">
@@ -1020,10 +1020,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>2380.648258007845</v>
+        <v>2624.20695710878</v>
       </c>
       <c r="C53" t="n">
-        <v>2.640596656799316</v>
+        <v>1.760756254196167</v>
       </c>
     </row>
     <row r="54">
@@ -1031,10 +1031,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>2392.858186620105</v>
+        <v>2619.437861385928</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04151537895202637</v>
+        <v>14.11228704452515</v>
       </c>
     </row>
     <row r="55">
@@ -1042,10 +1042,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>2388.842980608063</v>
+        <v>2626.63313952411</v>
       </c>
       <c r="C55" t="n">
-        <v>11.93533208847046</v>
+        <v>14.3892662525177</v>
       </c>
     </row>
     <row r="56">
@@ -1053,10 +1053,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>2389.517312083884</v>
+        <v>2634.786294446378</v>
       </c>
       <c r="C56" t="n">
-        <v>11.98903515815735</v>
+        <v>14.48301458358765</v>
       </c>
     </row>
     <row r="57">
@@ -1064,10 +1064,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>2402.726162050622</v>
+        <v>2632.707672057457</v>
       </c>
       <c r="C57" t="n">
-        <v>2.917577772140503</v>
+        <v>14.62364673614502</v>
       </c>
     </row>
     <row r="58">
@@ -1075,10 +1075,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>2398.860203615341</v>
+        <v>2634.384174273465</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8393714714050293</v>
+        <v>14.59533262252808</v>
       </c>
     </row>
     <row r="59">
@@ -1086,10 +1086,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>2396.225853669193</v>
+        <v>2643.887277536511</v>
       </c>
       <c r="C59" t="n">
-        <v>12.23904421806335</v>
+        <v>14.67051863670349</v>
       </c>
     </row>
     <row r="60">
@@ -1097,10 +1097,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>2398.95122874663</v>
+        <v>2637.066643634984</v>
       </c>
       <c r="C60" t="n">
-        <v>11.52220061302185</v>
+        <v>14.67051863670349</v>
       </c>
     </row>
     <row r="61">
@@ -1108,10 +1108,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>2400.534721716874</v>
+        <v>2648.839484715112</v>
       </c>
       <c r="C61" t="n">
-        <v>12.16661503791809</v>
+        <v>14.67051863670349</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>22.19398361221145</v>
+        <v>116.9536234696973</v>
       </c>
       <c r="C2" t="n">
-        <v>1.643893079757691</v>
+        <v>0.7513895034790039</v>
       </c>
     </row>
     <row r="3">
@@ -1166,32 +1166,32 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>51.7703366787885</v>
+        <v>118.2585279300851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.926409559249878</v>
+        <v>0.7480823993682861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>266.9194027343425</v>
+        <v>1236.626368796769</v>
       </c>
       <c r="C4" t="n">
-        <v>1.43739016532898</v>
+        <v>1.526898384094238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>462.705538244483</v>
+        <v>1054.129482152272</v>
       </c>
       <c r="C5" t="n">
-        <v>1.310533123016357</v>
+        <v>1.714534282684326</v>
       </c>
     </row>
     <row r="6">
@@ -1199,32 +1199,32 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>695.7313832547953</v>
+        <v>1384.033300995888</v>
       </c>
       <c r="C6" t="n">
-        <v>5.489228563308716</v>
+        <v>1.881597757339478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>787.9298517692773</v>
+        <v>1336.88007330817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02404625892639162</v>
+        <v>2.037993669509888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>966.0902167127937</v>
+        <v>1293.108835436334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6120258140563966</v>
+        <v>2.386500358581543</v>
       </c>
     </row>
     <row r="9">
@@ -1232,21 +1232,21 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>1032.574262546383</v>
+        <v>1422.382506915995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08820946693420412</v>
+        <v>2.666309595108032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>1116.099793357544</v>
+        <v>1425.02549894686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01169760704040529</v>
+        <v>3.26399564743042</v>
       </c>
     </row>
     <row r="11">
@@ -1254,10 +1254,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>1171.035720182645</v>
+        <v>1489.761777765605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02086432456970216</v>
+        <v>0.1807212829589844</v>
       </c>
     </row>
     <row r="12">
@@ -1265,10 +1265,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>1207.571475295406</v>
+        <v>1509.292204114221</v>
       </c>
       <c r="C12" t="n">
-        <v>4.50807412147522</v>
+        <v>3.653642416000366</v>
       </c>
     </row>
     <row r="13">
@@ -1276,10 +1276,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>1278.762816344156</v>
+        <v>1525.30854434381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6868408489227296</v>
+        <v>4.16694974899292</v>
       </c>
     </row>
     <row r="14">
@@ -1287,10 +1287,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>1278.745234182229</v>
+        <v>1546.464348765137</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6778305339813233</v>
+        <v>4.224611759185791</v>
       </c>
     </row>
     <row r="15">
@@ -1298,10 +1298,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>1333.059299861828</v>
+        <v>1547.33257865073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08495076179504396</v>
+        <v>4.553258419036865</v>
       </c>
     </row>
     <row r="16">
@@ -1309,10 +1309,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>1340.469708321842</v>
+        <v>1557.187057421975</v>
       </c>
       <c r="C16" t="n">
-        <v>11.09583480834961</v>
+        <v>6.97345495223999</v>
       </c>
     </row>
     <row r="17">
@@ -1320,10 +1320,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>1368.028889456259</v>
+        <v>1571.997292620761</v>
       </c>
       <c r="C17" t="n">
-        <v>3.560120897293091</v>
+        <v>6.111288785934448</v>
       </c>
     </row>
     <row r="18">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>1384.959051027423</v>
+        <v>1594.488493811151</v>
       </c>
       <c r="C18" t="n">
-        <v>4.691954212188721</v>
+        <v>5.640789031982422</v>
       </c>
     </row>
     <row r="19">
@@ -1342,10 +1342,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>1406.449717423952</v>
+        <v>1579.318764040205</v>
       </c>
       <c r="C19" t="n">
-        <v>10.9470380115509</v>
+        <v>1.663861036300659</v>
       </c>
     </row>
     <row r="20">
@@ -1353,10 +1353,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>1429.802673331314</v>
+        <v>1601.458206784389</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0317955780029297</v>
+        <v>4.226567029953003</v>
       </c>
     </row>
     <row r="21">
@@ -1364,10 +1364,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>1407.401702836766</v>
+        <v>1601.34146487776</v>
       </c>
       <c r="C21" t="n">
-        <v>10.78279455184937</v>
+        <v>0.1250360012054443</v>
       </c>
     </row>
     <row r="22">
@@ -1375,10 +1375,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>1420.625713518322</v>
+        <v>1598.977082146751</v>
       </c>
       <c r="C22" t="n">
-        <v>10.85317404747009</v>
+        <v>12.6782922744751</v>
       </c>
     </row>
     <row r="23">
@@ -1386,10 +1386,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>1448.918823435768</v>
+        <v>1603.293186593794</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5836222934722901</v>
+        <v>12.87944960594177</v>
       </c>
     </row>
     <row r="24">
@@ -1397,10 +1397,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>1449.384923432056</v>
+        <v>1596.303963195454</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.05345479965209959</v>
+        <v>13.10354852676392</v>
       </c>
     </row>
     <row r="25">
@@ -1408,10 +1408,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>1459.884999441542</v>
+        <v>1614.199521898248</v>
       </c>
       <c r="C25" t="n">
-        <v>10.79364307403564</v>
+        <v>13.10483002662659</v>
       </c>
     </row>
     <row r="26">
@@ -1419,10 +1419,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>1470.273218566615</v>
+        <v>1616.264650977359</v>
       </c>
       <c r="C26" t="n">
-        <v>10.68206174850464</v>
+        <v>13.16303873062134</v>
       </c>
     </row>
     <row r="27">
@@ -1430,10 +1430,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>1462.86816382203</v>
+        <v>1610.175105062858</v>
       </c>
       <c r="C27" t="n">
-        <v>1.801840620040894</v>
+        <v>13.1678409576416</v>
       </c>
     </row>
     <row r="28">
@@ -1441,10 +1441,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>1471.216361209046</v>
+        <v>1607.395702442862</v>
       </c>
       <c r="C28" t="n">
-        <v>10.6938858795166</v>
+        <v>13.16983890533447</v>
       </c>
     </row>
     <row r="29">
@@ -1452,10 +1452,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>1479.060774420934</v>
+        <v>1608.444492144741</v>
       </c>
       <c r="C29" t="n">
-        <v>10.66157873153687</v>
+        <v>13.16403841972351</v>
       </c>
     </row>
     <row r="30">
@@ -1463,10 +1463,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>1485.314421163301</v>
+        <v>1617.760104556258</v>
       </c>
       <c r="C30" t="n">
-        <v>10.56113608360291</v>
+        <v>13.17669820785522</v>
       </c>
     </row>
     <row r="31">
@@ -1474,10 +1474,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>1494.557341040852</v>
+        <v>1617.952626561788</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3790520000457764</v>
+        <v>13.1673469543457</v>
       </c>
     </row>
     <row r="32">
@@ -1485,10 +1485,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>1487.761646567774</v>
+        <v>1610.800533693546</v>
       </c>
       <c r="C32" t="n">
-        <v>10.61688073158264</v>
+        <v>13.17669820785522</v>
       </c>
     </row>
     <row r="33">
@@ -1496,10 +1496,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>1503.868311361911</v>
+        <v>1613.254437366524</v>
       </c>
       <c r="C33" t="n">
-        <v>10.55085475921631</v>
+        <v>13.1673469543457</v>
       </c>
     </row>
     <row r="34">
@@ -1507,10 +1507,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>1498.55478305894</v>
+        <v>1619.409420230426</v>
       </c>
       <c r="C34" t="n">
-        <v>9.248505668640137</v>
+        <v>13.17669820785522</v>
       </c>
     </row>
     <row r="35">
@@ -1518,10 +1518,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>1505.713083221697</v>
+        <v>1614.138577861055</v>
       </c>
       <c r="C35" t="n">
-        <v>10.6137336063385</v>
+        <v>13.17669820785522</v>
       </c>
     </row>
     <row r="36">
@@ -1529,10 +1529,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>1508.977727693848</v>
+        <v>1630.089241450108</v>
       </c>
       <c r="C36" t="n">
-        <v>10.61683137893677</v>
+        <v>13.21570229530334</v>
       </c>
     </row>
     <row r="37">
@@ -1540,10 +1540,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>1512.690003467734</v>
+        <v>1608.95809315366</v>
       </c>
       <c r="C37" t="n">
-        <v>10.60913022041321</v>
+        <v>13.21420693397522</v>
       </c>
     </row>
     <row r="38">
@@ -1551,10 +1551,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>1520.635802076424</v>
+        <v>1632.640219450125</v>
       </c>
       <c r="C38" t="n">
-        <v>3.100825147628784</v>
+        <v>13.21292543411255</v>
       </c>
     </row>
     <row r="39">
@@ -1562,10 +1562,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>1514.450041991234</v>
+        <v>1627.928479259766</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6539278793334962</v>
+        <v>13.20889973640442</v>
       </c>
     </row>
     <row r="40">
@@ -1573,10 +1573,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>1514.321387836892</v>
+        <v>1634.086508852253</v>
       </c>
       <c r="C40" t="n">
-        <v>1.617407159805298</v>
+        <v>13.21292543411255</v>
       </c>
     </row>
     <row r="41">
@@ -1584,10 +1584,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>1524.74731241687</v>
+        <v>1640.629441808791</v>
       </c>
       <c r="C41" t="n">
-        <v>10.55442436218262</v>
+        <v>13.21089839935303</v>
       </c>
     </row>
     <row r="42">
@@ -1595,10 +1595,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>1520.25084119627</v>
+        <v>1633.026915135368</v>
       </c>
       <c r="C42" t="n">
-        <v>10.58434899330139</v>
+        <v>13.22355818748474</v>
       </c>
     </row>
     <row r="43">
@@ -1606,10 +1606,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>1527.62455325494</v>
+        <v>1639.082344749216</v>
       </c>
       <c r="C43" t="n">
-        <v>2.031578378677368</v>
+        <v>13.21292543411255</v>
       </c>
     </row>
     <row r="44">
@@ -1617,10 +1617,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>1533.321812146245</v>
+        <v>1638.346050147154</v>
       </c>
       <c r="C44" t="n">
-        <v>1.180716829299927</v>
+        <v>13.2118968963623</v>
       </c>
     </row>
     <row r="45">
@@ -1628,10 +1628,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>1541.232318654686</v>
+        <v>1647.746857177161</v>
       </c>
       <c r="C45" t="n">
-        <v>1.580945568084717</v>
+        <v>13.20989871025085</v>
       </c>
     </row>
     <row r="46">
@@ -1639,10 +1639,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>1538.686949467679</v>
+        <v>1641.569398966826</v>
       </c>
       <c r="C46" t="n">
-        <v>9.677370386123657</v>
+        <v>13.21570229530334</v>
       </c>
     </row>
     <row r="47">
@@ -1650,10 +1650,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>1541.429635316161</v>
+        <v>1647.314898584994</v>
       </c>
       <c r="C47" t="n">
-        <v>5.672774391174316</v>
+        <v>13.21570229530334</v>
       </c>
     </row>
     <row r="48">
@@ -1661,10 +1661,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>1541.849724460614</v>
+        <v>1646.482869947936</v>
       </c>
       <c r="C48" t="n">
-        <v>10.61818202018738</v>
+        <v>13.21570229530334</v>
       </c>
     </row>
     <row r="49">
@@ -1672,10 +1672,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>1546.743196766552</v>
+        <v>1645.12645907305</v>
       </c>
       <c r="C49" t="n">
-        <v>2.300555305480957</v>
+        <v>13.21669888496399</v>
       </c>
     </row>
     <row r="50">
@@ -1683,10 +1683,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>1550.871453679183</v>
+        <v>1656.142840182471</v>
       </c>
       <c r="C50" t="n">
-        <v>1.51315863609314</v>
+        <v>13.20889973640442</v>
       </c>
     </row>
     <row r="51">
@@ -1694,10 +1694,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>1551.419933849565</v>
+        <v>1656.55568186301</v>
       </c>
       <c r="C51" t="n">
-        <v>3.980486707687378</v>
+        <v>13.2118968963623</v>
       </c>
     </row>
     <row r="52">
@@ -1705,10 +1705,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>1547.802242411962</v>
+        <v>1651.828422651788</v>
       </c>
       <c r="C52" t="n">
-        <v>10.79711301803589</v>
+        <v>13.20989871025085</v>
       </c>
     </row>
     <row r="53">
@@ -1716,10 +1716,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>1550.725402112304</v>
+        <v>1655.319415211152</v>
       </c>
       <c r="C53" t="n">
-        <v>2.505753116607666</v>
+        <v>13.21292543411255</v>
       </c>
     </row>
     <row r="54">
@@ -1727,10 +1727,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>1552.440915524375</v>
+        <v>1665.847326216865</v>
       </c>
       <c r="C54" t="n">
-        <v>3.876082735061646</v>
+        <v>13.2118968963623</v>
       </c>
     </row>
     <row r="55">
@@ -1738,10 +1738,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>1555.350428160782</v>
+        <v>1652.142551056666</v>
       </c>
       <c r="C55" t="n">
-        <v>1.79584963798523</v>
+        <v>13.22355818748474</v>
       </c>
     </row>
     <row r="56">
@@ -1749,10 +1749,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>1562.730688718822</v>
+        <v>1651.655174365754</v>
       </c>
       <c r="C56" t="n">
-        <v>1.520993785858154</v>
+        <v>13.21089839935303</v>
       </c>
     </row>
     <row r="57">
@@ -1760,10 +1760,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>1558.581606005562</v>
+        <v>1660.60034629594</v>
       </c>
       <c r="C57" t="n">
-        <v>10.81370957374573</v>
+        <v>13.25881314277649</v>
       </c>
     </row>
     <row r="58">
@@ -1771,10 +1771,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>1557.820682051466</v>
+        <v>1654.865321337927</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5577743816375733</v>
+        <v>13.25781345367432</v>
       </c>
     </row>
     <row r="59">
@@ -1782,10 +1782,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>1563.086526526021</v>
+        <v>1659.997181538046</v>
       </c>
       <c r="C59" t="n">
-        <v>10.90696747779846</v>
+        <v>12.49410200119019</v>
       </c>
     </row>
     <row r="60">
@@ -1793,10 +1793,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>1562.081376219831</v>
+        <v>1649.586036496833</v>
       </c>
       <c r="C60" t="n">
-        <v>10.87356598854065</v>
+        <v>13.2714729309082</v>
       </c>
     </row>
     <row r="61">
@@ -1804,10 +1804,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>1561.323317698459</v>
+        <v>1660.325648776858</v>
       </c>
       <c r="C61" t="n">
-        <v>10.8724211025238</v>
+        <v>0.1417160034179688</v>
       </c>
     </row>
   </sheetData>
@@ -1851,10 +1851,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>11.8108559636858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03622229576110841</v>
+        <v>1.023558855056763</v>
       </c>
     </row>
     <row r="3">
@@ -1862,10 +1862,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>9.507327864055375</v>
+        <v>56.68218997549843</v>
       </c>
       <c r="C3" t="n">
-        <v>1.286429719924927</v>
+        <v>1.14736270904541</v>
       </c>
     </row>
     <row r="4">
@@ -1873,637 +1873,637 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>94.32191392342237</v>
+        <v>286.4080507395252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00891001701354982</v>
+        <v>0.140148401260376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>151.4520508817754</v>
+        <v>256.9384196112459</v>
       </c>
       <c r="C5" t="n">
-        <v>1.200433568954468</v>
+        <v>4.869099617004395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>184.7893910661431</v>
+        <v>324.1215313553648</v>
       </c>
       <c r="C6" t="n">
-        <v>9.783226566314697</v>
+        <v>9.189630031585693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>231.2755852431097</v>
+        <v>357.6746640538598</v>
       </c>
       <c r="C7" t="n">
-        <v>9.076298789978027</v>
+        <v>10.46776509284973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>239.7671987461938</v>
+        <v>365.2097475124928</v>
       </c>
       <c r="C8" t="n">
-        <v>9.360884742736816</v>
+        <v>10.52513408660889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>272.6255525338368</v>
+        <v>361.0483599468007</v>
       </c>
       <c r="C9" t="n">
-        <v>2.265939073562622</v>
+        <v>10.52613162994385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>285.6525162195427</v>
+        <v>362.5689506357224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7252803611755372</v>
+        <v>10.57674241065979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>286.1595224692393</v>
+        <v>360.0389309882989</v>
       </c>
       <c r="C11" t="n">
-        <v>9.174568967819214</v>
+        <v>10.57574486732483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>304.4656432358274</v>
+        <v>370.916445682238</v>
       </c>
       <c r="C12" t="n">
-        <v>9.169383125305176</v>
+        <v>10.57474565505981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>316.9832913378328</v>
+        <v>377.9967202488232</v>
       </c>
       <c r="C13" t="n">
-        <v>8.684712963104248</v>
+        <v>10.57674241065979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>321.4952494245493</v>
+        <v>375.5969592231208</v>
       </c>
       <c r="C14" t="n">
-        <v>9.275754766464233</v>
+        <v>10.13664317131042</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>326.3460842807174</v>
+        <v>380.7201425692643</v>
       </c>
       <c r="C15" t="n">
-        <v>7.235088424682617</v>
+        <v>0.1266191005706787</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>334.6784676734335</v>
+        <v>378.6743675773934</v>
       </c>
       <c r="C16" t="n">
-        <v>9.351067380905151</v>
+        <v>1.039151430130005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>327.4603011277136</v>
+        <v>381.3302225058437</v>
       </c>
       <c r="C17" t="n">
-        <v>9.332254486083984</v>
+        <v>8.385437965393066</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>340.2159026629573</v>
+        <v>377.8645212986088</v>
       </c>
       <c r="C18" t="n">
-        <v>9.41896017074585</v>
+        <v>5.263420104980469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>340.0809118427521</v>
+        <v>391.2687539207329</v>
       </c>
       <c r="C19" t="n">
-        <v>2.932796316146851</v>
+        <v>6.688396453857422</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
-        <v>345.7364876740975</v>
+        <v>386.2610614560649</v>
       </c>
       <c r="C20" t="n">
-        <v>9.445387201309204</v>
+        <v>9.53400444984436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>346.4038996421492</v>
+        <v>391.3798757779188</v>
       </c>
       <c r="C21" t="n">
-        <v>1.690169410705566</v>
+        <v>9.492102861404419</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
-        <v>350.1891441905446</v>
+        <v>380.2871653664595</v>
       </c>
       <c r="C22" t="n">
-        <v>9.460794763565064</v>
+        <v>9.493674755096436</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>355.8152336436529</v>
+        <v>397.639754199021</v>
       </c>
       <c r="C23" t="n">
-        <v>9.623780565261841</v>
+        <v>9.493674755096436</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>351.7316922764503</v>
+        <v>392.5915492870131</v>
       </c>
       <c r="C24" t="n">
-        <v>9.527249412536621</v>
+        <v>9.537074327468872</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
-        <v>360.360951579655</v>
+        <v>396.7355599323798</v>
       </c>
       <c r="C25" t="n">
-        <v>9.534856395721436</v>
+        <v>0.1154201030731201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>359.9166874129487</v>
+        <v>395.834437311711</v>
       </c>
       <c r="C26" t="n">
-        <v>9.534792499542236</v>
+        <v>9.509698390960693</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>360.7029223971981</v>
+        <v>397.6667188024879</v>
       </c>
       <c r="C27" t="n">
-        <v>9.536881761550903</v>
+        <v>9.510270118713379</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="n">
-        <v>360.6852569240533</v>
+        <v>394.4218772259163</v>
       </c>
       <c r="C28" t="n">
-        <v>4.019338207244873</v>
+        <v>1.134147167205811</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
-        <v>361.186261307647</v>
+        <v>399.3666561114003</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7903393077850343</v>
+        <v>1.919081449508667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>361.9106847334125</v>
+        <v>396.9957925613321</v>
       </c>
       <c r="C30" t="n">
-        <v>9.535618619918823</v>
+        <v>9.515900850296021</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="n">
-        <v>365.9881052451758</v>
+        <v>394.9149062040257</v>
       </c>
       <c r="C31" t="n">
-        <v>9.549502449035645</v>
+        <v>9.517698049545288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>364.6437756781418</v>
+        <v>395.4196092793298</v>
       </c>
       <c r="C32" t="n">
-        <v>7.258218364715576</v>
+        <v>9.477348804473877</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>368.3306889805476</v>
+        <v>395.3779247438277</v>
       </c>
       <c r="C33" t="n">
-        <v>2.246770935058594</v>
+        <v>2.083275079727173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="n">
-        <v>365.7653568667304</v>
+        <v>395.5850756760667</v>
       </c>
       <c r="C34" t="n">
-        <v>9.538516120910645</v>
+        <v>9.47510838508606</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>372.6260765112415</v>
+        <v>397.4608914386642</v>
       </c>
       <c r="C35" t="n">
-        <v>9.537801580429077</v>
+        <v>1.870219469070435</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
-        <v>369.2675922563562</v>
+        <v>396.2884991461938</v>
       </c>
       <c r="C36" t="n">
-        <v>6.268614845275879</v>
+        <v>9.472776889801025</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" t="n">
-        <v>376.2879086549572</v>
+        <v>399.2403498560845</v>
       </c>
       <c r="C37" t="n">
-        <v>9.022902326583862</v>
+        <v>9.463392972946167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
-        <v>374.2763694282232</v>
+        <v>394.5498774673998</v>
       </c>
       <c r="C38" t="n">
-        <v>9.451983766555786</v>
+        <v>9.476592302322388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>376.5149505961601</v>
+        <v>399.7959800560207</v>
       </c>
       <c r="C39" t="n">
-        <v>9.452015476226807</v>
+        <v>0.1391534805297852</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="n">
-        <v>374.5626518862492</v>
+        <v>396.8915509062797</v>
       </c>
       <c r="C40" t="n">
-        <v>1.757356719970703</v>
+        <v>9.479768991470337</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
-        <v>377.103920587952</v>
+        <v>398.395713373081</v>
       </c>
       <c r="C41" t="n">
-        <v>4.326869564056397</v>
+        <v>9.472033739089966</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>373.9273615351712</v>
+        <v>401.6306212281508</v>
       </c>
       <c r="C42" t="n">
-        <v>8.859393911361694</v>
+        <v>3.395343780517578</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="n">
-        <v>379.972647254867</v>
+        <v>401.3572806065555</v>
       </c>
       <c r="C43" t="n">
-        <v>6.872454719543457</v>
+        <v>9.504353284835815</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B44" t="n">
-        <v>375.9729282179193</v>
+        <v>398.3445450170712</v>
       </c>
       <c r="C44" t="n">
-        <v>9.468731479644775</v>
+        <v>3.241421461105347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="n">
-        <v>380.4643517416195</v>
+        <v>400.4521200864141</v>
       </c>
       <c r="C45" t="n">
-        <v>6.464654998779297</v>
+        <v>9.497392892837524</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="n">
-        <v>378.4679835777338</v>
+        <v>398.2121341766437</v>
       </c>
       <c r="C46" t="n">
-        <v>2.612345056533814</v>
+        <v>5.64980673789978</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="n">
-        <v>377.3889060854571</v>
+        <v>399.3905121120354</v>
       </c>
       <c r="C47" t="n">
-        <v>6.634046154022217</v>
+        <v>3.864372968673706</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="n">
-        <v>379.381344045132</v>
+        <v>397.6069038405994</v>
       </c>
       <c r="C48" t="n">
-        <v>9.430083351135254</v>
+        <v>9.510571241378784</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" t="n">
-        <v>376.9097318874182</v>
+        <v>401.9634344812414</v>
       </c>
       <c r="C49" t="n">
-        <v>9.446351842880249</v>
+        <v>6.97468900680542</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="n">
-        <v>380.3973039062569</v>
+        <v>399.4887679049883</v>
       </c>
       <c r="C50" t="n">
-        <v>9.470472412109375</v>
+        <v>5.141195774078369</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" t="n">
-        <v>378.6487377699553</v>
+        <v>399.9881585792517</v>
       </c>
       <c r="C51" t="n">
-        <v>9.475161628723145</v>
+        <v>0.3903443813323975</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" t="n">
-        <v>380.3559666346566</v>
+        <v>402.0001975963243</v>
       </c>
       <c r="C52" t="n">
-        <v>7.318519668579102</v>
+        <v>0.1071257591247559</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" t="n">
-        <v>378.6757213158186</v>
+        <v>400.9582659571146</v>
       </c>
       <c r="C53" t="n">
-        <v>2.008762435913086</v>
+        <v>0.4169402122497559</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" t="n">
-        <v>381.1049291838305</v>
+        <v>399.3942494976371</v>
       </c>
       <c r="C54" t="n">
-        <v>9.447706775665283</v>
+        <v>9.573292016983032</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" t="n">
-        <v>380.1693239530194</v>
+        <v>399.5768691525265</v>
       </c>
       <c r="C55" t="n">
-        <v>9.432391242980957</v>
+        <v>9.556384325027466</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" t="n">
-        <v>381.5918379687578</v>
+        <v>400.7349035684683</v>
       </c>
       <c r="C56" t="n">
-        <v>9.442292766571045</v>
+        <v>0.1131219863891602</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="n">
-        <v>380.7941279998121</v>
+        <v>400.6974101605536</v>
       </c>
       <c r="C57" t="n">
-        <v>9.447711067199707</v>
+        <v>0.4868123531341553</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="n">
-        <v>381.7404340553038</v>
+        <v>400.6647290298927</v>
       </c>
       <c r="C58" t="n">
-        <v>1.624687032699585</v>
+        <v>9.564474582672119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59" t="n">
-        <v>380.0023486111454</v>
+        <v>401.3101026210578</v>
       </c>
       <c r="C59" t="n">
-        <v>9.429216938018799</v>
+        <v>1.226306915283203</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B60" t="n">
-        <v>383.1726775308568</v>
+        <v>401.397278428875</v>
       </c>
       <c r="C60" t="n">
-        <v>4.203156070709229</v>
+        <v>4.697448253631592</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B61" t="n">
-        <v>382.4685887860322</v>
+        <v>401.5487405563943</v>
       </c>
       <c r="C61" t="n">
-        <v>9.487963037490845</v>
+        <v>2.967264413833618</v>
       </c>
     </row>
   </sheetData>
@@ -2544,662 +2544,662 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>44.62581385363858</v>
       </c>
       <c r="C2" t="n">
-        <v>9.002494506835937</v>
+        <v>2.40864896774292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>40.12329773579231</v>
+        <v>134.5796798989995</v>
       </c>
       <c r="C3" t="n">
-        <v>4.950717144012451</v>
+        <v>3.075872421264648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>68.57563734425578</v>
+        <v>168.9967479310363</v>
       </c>
       <c r="C4" t="n">
-        <v>9.010066919326782</v>
+        <v>5.745189428329468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>83.74654828073712</v>
+        <v>176.4871463252008</v>
       </c>
       <c r="C5" t="n">
-        <v>6.130963497161865</v>
+        <v>9.360881090164185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>111.5712801639955</v>
+        <v>178.6371337280643</v>
       </c>
       <c r="C6" t="n">
-        <v>9.002555780410766</v>
+        <v>9.414134740829468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>131.6248753731811</v>
+        <v>213.6250450504985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5077885913848876</v>
+        <v>9.194409847259521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>150.850669576494</v>
+        <v>197.5632593632558</v>
       </c>
       <c r="C8" t="n">
-        <v>9.062785558700561</v>
+        <v>9.171124935150146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>151.4590339233326</v>
+        <v>192.2156238345041</v>
       </c>
       <c r="C9" t="n">
-        <v>9.054276161193847</v>
+        <v>9.122474431991577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>169.8655576123059</v>
+        <v>199.083283505345</v>
       </c>
       <c r="C10" t="n">
-        <v>4.822287015914917</v>
+        <v>6.282470703125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>152.8804930488978</v>
+        <v>202.359526239745</v>
       </c>
       <c r="C11" t="n">
-        <v>9.184733800888061</v>
+        <v>0.4991950988769531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>169.7024310146033</v>
+        <v>198.5702776894483</v>
       </c>
       <c r="C12" t="n">
-        <v>9.088172369003296</v>
+        <v>9.118136644363403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>164.3558921441792</v>
+        <v>209.8968533674601</v>
       </c>
       <c r="C13" t="n">
-        <v>6.250480585098266</v>
+        <v>7.405510425567627</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>173.3769632607872</v>
+        <v>195.8774470622016</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01417105674743652</v>
+        <v>9.111472368240356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>177.4238107956505</v>
+        <v>205.0155031824168</v>
       </c>
       <c r="C15" t="n">
-        <v>9.190145425796509</v>
+        <v>2.295229196548462</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>176.3999760190292</v>
+        <v>198.8556147445476</v>
       </c>
       <c r="C16" t="n">
-        <v>9.215309314727783</v>
+        <v>9.101552486419678</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>183.5232075554457</v>
+        <v>206.6903064281824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8651711273193359</v>
+        <v>9.089991807937622</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>177.9467282377029</v>
+        <v>198.7317144560671</v>
       </c>
       <c r="C18" t="n">
-        <v>9.247625045776367</v>
+        <v>9.101877689361572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>185.6147697971347</v>
+        <v>203.408590815613</v>
       </c>
       <c r="C19" t="n">
-        <v>9.281594686508178</v>
+        <v>0.6449165344238281</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
-        <v>182.5111656175522</v>
+        <v>201.5447252720808</v>
       </c>
       <c r="C20" t="n">
-        <v>9.191069536209106</v>
+        <v>9.10513973236084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>184.4819603680678</v>
+        <v>207.4876993430914</v>
       </c>
       <c r="C21" t="n">
-        <v>2.475387268066406</v>
+        <v>9.095699310302734</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
-        <v>185.2491568564598</v>
+        <v>205.1165418001095</v>
       </c>
       <c r="C22" t="n">
-        <v>9.172966175079345</v>
+        <v>5.937936782836914</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>183.7243045167878</v>
+        <v>210.6297104347868</v>
       </c>
       <c r="C23" t="n">
-        <v>9.153909378051758</v>
+        <v>1.990253686904907</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>189.5541123339329</v>
+        <v>205.4056659084505</v>
       </c>
       <c r="C24" t="n">
-        <v>5.176389627456665</v>
+        <v>2.154233932495117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
-        <v>186.9307168628668</v>
+        <v>211.6919563541595</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6758977699279785</v>
+        <v>0.123152494430542</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>190.4834789259109</v>
+        <v>209.8348712374997</v>
       </c>
       <c r="C26" t="n">
-        <v>9.11558669090271</v>
+        <v>9.116058826446533</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>191.6066019259288</v>
+        <v>211.3191946891693</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3789152431488037</v>
+        <v>9.114655733108521</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="n">
-        <v>190.7711383501499</v>
+        <v>210.5626109799225</v>
       </c>
       <c r="C28" t="n">
-        <v>9.051487617492675</v>
+        <v>9.119626998901367</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
-        <v>192.7317701595299</v>
+        <v>211.3627662986216</v>
       </c>
       <c r="C29" t="n">
-        <v>9.041339330673217</v>
+        <v>9.13190221786499</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>192.7982127851786</v>
+        <v>205.9063084832518</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3413533496856689</v>
+        <v>1.609539985656738</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="n">
-        <v>192.7671772546022</v>
+        <v>210.5415571115259</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6416322517395019</v>
+        <v>9.156599521636963</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>193.7269961392883</v>
+        <v>206.8881024046832</v>
       </c>
       <c r="C32" t="n">
-        <v>9.074813537597656</v>
+        <v>0.9037644863128662</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>195.1214894272611</v>
+        <v>213.9861467976218</v>
       </c>
       <c r="C33" t="n">
-        <v>9.107318572998047</v>
+        <v>9.166589975357056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="n">
-        <v>191.8329836922288</v>
+        <v>207.5077732556924</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02187926292419434</v>
+        <v>0.7560145854949951</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>196.4988119150547</v>
+        <v>211.7000791295681</v>
       </c>
       <c r="C35" t="n">
-        <v>9.127309970855713</v>
+        <v>9.179048299789429</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
-        <v>193.173852696379</v>
+        <v>205.6529516130081</v>
       </c>
       <c r="C36" t="n">
-        <v>3.800156764984131</v>
+        <v>9.170649290084839</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" t="n">
-        <v>195.0971869570058</v>
+        <v>211.8230931108276</v>
       </c>
       <c r="C37" t="n">
-        <v>7.714223556518554</v>
+        <v>9.161699295043945</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
-        <v>195.6821846499475</v>
+        <v>208.6651129009511</v>
       </c>
       <c r="C38" t="n">
-        <v>9.087942771911621</v>
+        <v>0.1800603866577148</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>195.939288421413</v>
+        <v>211.6905989907209</v>
       </c>
       <c r="C39" t="n">
-        <v>9.133505277633667</v>
+        <v>7.111698389053345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="n">
-        <v>195.4869997567022</v>
+        <v>209.2071824475829</v>
       </c>
       <c r="C40" t="n">
-        <v>9.104945592880249</v>
+        <v>9.205179691314697</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
-        <v>196.5904943798489</v>
+        <v>211.1980161765024</v>
       </c>
       <c r="C41" t="n">
-        <v>3.242321424484253</v>
+        <v>2.398788213729858</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>195.5069130614238</v>
+        <v>209.3767109029838</v>
       </c>
       <c r="C42" t="n">
-        <v>9.098930768966675</v>
+        <v>1.192394971847534</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="n">
-        <v>196.914897627585</v>
+        <v>210.1818106676494</v>
       </c>
       <c r="C43" t="n">
-        <v>9.092675857543945</v>
+        <v>6.08447265625</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B44" t="n">
-        <v>195.5603005598001</v>
+        <v>209.8215010022501</v>
       </c>
       <c r="C44" t="n">
-        <v>6.868645601272583</v>
+        <v>9.197304964065552</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="n">
-        <v>196.8109136760565</v>
+        <v>209.6911384089439</v>
       </c>
       <c r="C45" t="n">
-        <v>9.05480092048645</v>
+        <v>7.301810026168823</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="n">
-        <v>200.2207548762962</v>
+        <v>210.271243659006</v>
       </c>
       <c r="C46" t="n">
-        <v>9.061509304046631</v>
+        <v>9.120136022567749</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="n">
-        <v>195.8639967729893</v>
+        <v>209.488020503112</v>
       </c>
       <c r="C47" t="n">
-        <v>9.042084865570068</v>
+        <v>0.1764631271362305</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="n">
-        <v>200.485249563184</v>
+        <v>210.4008391546973</v>
       </c>
       <c r="C48" t="n">
-        <v>9.143004827499389</v>
+        <v>4.477401494979858</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" t="n">
-        <v>198.0450636482398</v>
+        <v>209.1868620223677</v>
       </c>
       <c r="C49" t="n">
-        <v>3.509521484368339e-06</v>
+        <v>4.775780916213989</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="n">
-        <v>198.6651684300771</v>
+        <v>210.9884368457316</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.005813188552856452</v>
+        <v>0.1107993125915527</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" t="n">
-        <v>196.6063763248696</v>
+        <v>207.2829826667755</v>
       </c>
       <c r="C51" t="n">
-        <v>8.678406648635864</v>
+        <v>9.116729259490967</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" t="n">
-        <v>199.1294889346937</v>
+        <v>211.1710354243522</v>
       </c>
       <c r="C52" t="n">
-        <v>5.168810777664184</v>
+        <v>9.133163213729858</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" t="n">
-        <v>196.3724816151663</v>
+        <v>208.9393656811959</v>
       </c>
       <c r="C53" t="n">
-        <v>9.380482368469238</v>
+        <v>9.105664968490601</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" t="n">
-        <v>198.3747888839996</v>
+        <v>209.5238147520433</v>
       </c>
       <c r="C54" t="n">
-        <v>9.531410150527954</v>
+        <v>9.113857269287109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" t="n">
-        <v>199.6526078154783</v>
+        <v>212.3311645408359</v>
       </c>
       <c r="C55" t="n">
-        <v>9.393471412658691</v>
+        <v>9.101254463195801</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" t="n">
-        <v>200.498924655897</v>
+        <v>209.8608427120812</v>
       </c>
       <c r="C56" t="n">
-        <v>9.279152088165283</v>
+        <v>2.538542032241821</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" t="n">
-        <v>198.8834325722482</v>
+        <v>210.0196554615955</v>
       </c>
       <c r="C57" t="n">
-        <v>9.400977306365967</v>
+        <v>9.097597122192383</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="n">
-        <v>198.87354197493</v>
+        <v>211.2465449877793</v>
       </c>
       <c r="C58" t="n">
-        <v>9.394129447937011</v>
+        <v>0.1222913265228271</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59" t="n">
-        <v>199.0304103641269</v>
+        <v>210.6279968959799</v>
       </c>
       <c r="C59" t="n">
-        <v>4.953991346359253</v>
+        <v>9.103595495223999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B60" t="n">
-        <v>199.4403696433756</v>
+        <v>210.0853938074636</v>
       </c>
       <c r="C60" t="n">
-        <v>1.987157754898071</v>
+        <v>9.089312314987183</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B61" t="n">
-        <v>199.0688264158188</v>
+        <v>209.7199070556921</v>
       </c>
       <c r="C61" t="n">
-        <v>6.43848388671875</v>
+        <v>9.106634140014648</v>
       </c>
     </row>
   </sheetData>
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3240,453 +3240,519 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.384265546798706</v>
+        <v>9.039266109466553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>26.94474671553953</v>
+        <v>42.24760417988647</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0281888198852539</v>
+        <v>3.813167333602905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>41.82896861205247</v>
+        <v>39.04860457217935</v>
       </c>
       <c r="C4" t="n">
-        <v>8.825776700973512</v>
+        <v>8.923866510391235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>31.34536719696055</v>
+        <v>29.2657325054089</v>
       </c>
       <c r="C5" t="n">
-        <v>8.826478843688966</v>
+        <v>8.931085348129272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>40.63000824532531</v>
+        <v>39.7853013900556</v>
       </c>
       <c r="C6" t="n">
-        <v>8.829298143386842</v>
+        <v>8.999469041824341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>33.85589097255553</v>
+        <v>33.14817859459053</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0329033088684082</v>
+        <v>8.937939167022705</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>39.22057433134665</v>
+        <v>32.52384608818052</v>
       </c>
       <c r="C8" t="n">
-        <v>9.05841935157776</v>
+        <v>8.929118156433105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>34.32213596811832</v>
+        <v>37.60960414570817</v>
       </c>
       <c r="C9" t="n">
-        <v>8.827487354278565</v>
+        <v>0.1303503513336182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
-        <v>39.84591448633548</v>
+        <v>33.43809801122338</v>
       </c>
       <c r="C10" t="n">
-        <v>6.405829315185547</v>
+        <v>8.061084747314453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="n">
-        <v>35.86670997163027</v>
+        <v>36.61551742900381</v>
       </c>
       <c r="C11" t="n">
-        <v>8.873647098541261</v>
+        <v>1.681262016296387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>38.63649284529463</v>
+        <v>33.27745288536363</v>
       </c>
       <c r="C12" t="n">
-        <v>8.834894781112672</v>
+        <v>0.1479325294494629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="n">
-        <v>39.81085539512979</v>
+        <v>36.16127220519655</v>
       </c>
       <c r="C13" t="n">
-        <v>1.932052497863769</v>
+        <v>8.929409742355347</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="n">
-        <v>36.73931462914755</v>
+        <v>33.37943426019366</v>
       </c>
       <c r="C14" t="n">
-        <v>8.823260669708253</v>
+        <v>8.92648458480835</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="n">
-        <v>40.30544255357575</v>
+        <v>37.76633832872972</v>
       </c>
       <c r="C15" t="n">
-        <v>8.824373130798341</v>
+        <v>0.5212116241455078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="n">
-        <v>37.61689931605887</v>
+        <v>35.24671728753441</v>
       </c>
       <c r="C16" t="n">
-        <v>8.825047855377198</v>
+        <v>8.927543163299561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="n">
-        <v>42.29548671971768</v>
+        <v>36.4452699089891</v>
       </c>
       <c r="C17" t="n">
-        <v>8.828728322982789</v>
+        <v>8.943383693695068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="n">
-        <v>39.80183103406277</v>
+        <v>34.30273586260277</v>
       </c>
       <c r="C18" t="n">
-        <v>8.828245286941529</v>
+        <v>8.925240516662598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="n">
-        <v>42.35865619857047</v>
+        <v>37.05358967474518</v>
       </c>
       <c r="C19" t="n">
-        <v>3.487934236526489</v>
+        <v>8.92321515083313</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
-        <v>40.13552332170049</v>
+        <v>35.09816404484864</v>
       </c>
       <c r="C20" t="n">
-        <v>8.830814962387086</v>
+        <v>3.942025184631348</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n">
-        <v>42.24494606006504</v>
+        <v>37.28521866332733</v>
       </c>
       <c r="C21" t="n">
-        <v>8.825330619812013</v>
+        <v>1.939538240432739</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
-        <v>44.56278818623853</v>
+        <v>39.12788523857351</v>
       </c>
       <c r="C22" t="n">
-        <v>8.830218439102174</v>
+        <v>6.575513124465942</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="n">
-        <v>42.54353045992726</v>
+        <v>37.35328121272303</v>
       </c>
       <c r="C23" t="n">
-        <v>8.828348760604859</v>
+        <v>8.925063848495483</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="n">
-        <v>44.33509694866714</v>
+        <v>38.53648611676476</v>
       </c>
       <c r="C24" t="n">
-        <v>8.854157571792603</v>
+        <v>0.1902792453765869</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
-        <v>42.49153832209127</v>
+        <v>36.92965923605591</v>
       </c>
       <c r="C25" t="n">
-        <v>1.239604597091675</v>
+        <v>8.924549102783203</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>44.32933074230908</v>
+        <v>38.97909059294881</v>
       </c>
       <c r="C26" t="n">
-        <v>8.826465969085694</v>
+        <v>8.923016309738159</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
-        <v>43.76011190520919</v>
+        <v>38.98063419727512</v>
       </c>
       <c r="C27" t="n">
-        <v>8.826125268936158</v>
+        <v>8.92316722869873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="n">
-        <v>42.13632585297698</v>
+        <v>39.66487823570732</v>
       </c>
       <c r="C28" t="n">
-        <v>8.910664920806886</v>
+        <v>8.922768115997314</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
-        <v>43.67875599985256</v>
+        <v>38.24588436435544</v>
       </c>
       <c r="C29" t="n">
-        <v>3.623317127227783</v>
+        <v>0.1181850433349609</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
-        <v>45.06158345053417</v>
+        <v>40.05191328661451</v>
       </c>
       <c r="C30" t="n">
-        <v>7.481539134979248</v>
+        <v>8.931909322738647</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="n">
-        <v>43.55525153769523</v>
+        <v>38.71775825972899</v>
       </c>
       <c r="C31" t="n">
-        <v>8.825451736450196</v>
+        <v>8.926282644271851</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>45.0767891297256</v>
+        <v>39.12487403300447</v>
       </c>
       <c r="C32" t="n">
-        <v>7.524187211990356</v>
+        <v>3.077533960342407</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" t="n">
-        <v>43.67403210479023</v>
+        <v>37.9040820297844</v>
       </c>
       <c r="C33" t="n">
-        <v>8.842241649627686</v>
+        <v>8.922416210174561</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="n">
-        <v>44.79781434145912</v>
+        <v>39.43422491309472</v>
       </c>
       <c r="C34" t="n">
-        <v>8.825591688156129</v>
+        <v>8.924255609512329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" t="n">
-        <v>43.4820266998647</v>
+        <v>38.27242888020229</v>
       </c>
       <c r="C35" t="n">
-        <v>3.677416925430298</v>
+        <v>5.409181356430054</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" t="n">
-        <v>44.71783716597791</v>
+        <v>39.62775730424092</v>
       </c>
       <c r="C36" t="n">
-        <v>8.82620966911316</v>
+        <v>1.558262825012207</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" t="n">
-        <v>43.47828967831347</v>
+        <v>40.54741691130582</v>
       </c>
       <c r="C37" t="n">
-        <v>6.620051507949829</v>
+        <v>8.943716526031494</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="n">
-        <v>44.5811442894695</v>
+        <v>39.45163736807257</v>
       </c>
       <c r="C38" t="n">
-        <v>8.908481960296632</v>
+        <v>8.923345565795898</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" t="n">
-        <v>43.40864891826141</v>
+        <v>40.35117574736692</v>
       </c>
       <c r="C39" t="n">
-        <v>2.934705142974853</v>
+        <v>8.927199840545654</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="n">
-        <v>44.37617898474478</v>
+        <v>39.31572286742197</v>
       </c>
       <c r="C40" t="n">
-        <v>8.824880723953248</v>
+        <v>2.34407639503479</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
-        <v>43.26308766152776</v>
+        <v>39.55447270758528</v>
       </c>
       <c r="C41" t="n">
-        <v>8.860388164520264</v>
+        <v>7.417878866195679</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="n">
-        <v>44.88860978994843</v>
+        <v>39.2220787316273</v>
       </c>
       <c r="C42" t="n">
-        <v>3.531760339736938</v>
+        <v>0.4620773792266846</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>209</v>
+      </c>
+      <c r="B43" t="n">
+        <v>40.18869561872076</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.994600057601929</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>214</v>
+      </c>
+      <c r="B44" t="n">
+        <v>39.2542686116542</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4642651081085205</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>219</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40.39259378841199</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.925044059753418</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>224</v>
+      </c>
+      <c r="B46" t="n">
+        <v>40.38050466026888</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.928979635238647</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>229</v>
+      </c>
+      <c r="B47" t="n">
+        <v>39.74985946164412</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.921700716018677</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>234</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40.4244523996714</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.063922166824341</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/llama31-8b_4090/llama31_8b_LMDeploy_4090.xlsx
+++ b/metrics/llama31-8b_4090/llama31_8b_LMDeploy_4090.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keesb\Documents\GitHub\nosana\metrics\llama31-8b_4090\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9643852-4460-45DA-ABBB-803F2D3FD958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A6529E-5DEC-4EC2-8CB6-CD9E56D23A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU_100" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="CU_5" sheetId="4" r:id="rId4"/>
     <sheet name="CU_1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -397,7 +410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3133,7 +3148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
